--- a/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/EducationalAchievmentDataWithSomeErrors.xlsx
+++ b/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/EducationalAchievmentDataWithSomeErrors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="86">
   <si>
     <t>Student ID</t>
   </si>
@@ -159,9 +159,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>Not Available</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>0.887012987013</t>
-  </si>
-  <si>
     <t>st000004@student.spbu.ru</t>
   </si>
   <si>
@@ -207,18 +201,12 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>0.94696969697</t>
-  </si>
-  <si>
     <t>st000003</t>
   </si>
   <si>
     <t>st000004</t>
   </si>
   <si>
-    <t>90.0</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>Сергеевич</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>st000006@student.spbu.ru</t>
   </si>
   <si>
@@ -283,6 +268,15 @@
   </si>
   <si>
     <t>verified_29.11.21_матмех</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>Not Avaliable</t>
   </si>
 </sst>
 </file>
@@ -696,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +704,8 @@
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -824,17 +820,17 @@
       <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -874,7 +870,7 @@
         <v>38</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>38</v>
@@ -888,11 +884,11 @@
       <c r="Y2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>39</v>
@@ -921,21 +917,21 @@
         <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -975,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>38</v>
@@ -989,11 +985,11 @@
       <c r="Y3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>39</v>
@@ -1020,22 +1016,22 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>65</v>
+      <c r="H4" s="12">
+        <v>75</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>38</v>
@@ -1073,8 +1069,8 @@
       <c r="T4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>38</v>
+      <c r="U4" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>38</v>
@@ -1088,11 +1084,11 @@
       <c r="Y4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="10" t="s">
-        <v>38</v>
+      <c r="Z4" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB4" s="10" t="s">
         <v>44</v>
@@ -1118,25 +1114,25 @@
         <v>394310</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>65</v>
+      <c r="H5" s="12">
+        <v>80</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>38</v>
@@ -1174,8 +1170,8 @@
       <c r="T5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>38</v>
+      <c r="U5" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="V5" s="10" t="s">
         <v>38</v>
@@ -1189,11 +1185,11 @@
       <c r="Y5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="10" t="s">
-        <v>38</v>
+      <c r="Z5" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB5" s="10" t="s">
         <v>44</v>
@@ -1219,91 +1215,91 @@
         <v>2692245</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="6" t="s">
+      <c r="W6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>41</v>
@@ -1323,7 +1319,9 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1341,9 +1339,9 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="Z7" s="13"/>
       <c r="AA7" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
@@ -1357,91 +1355,91 @@
         <v>2714096</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="12">
+        <v>75</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="12">
-        <v>60</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="AA8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AC8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AD8" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="AE8" s="10" t="s">
         <v>41</v>
@@ -1458,91 +1456,91 @@
         <v>2714096</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="12">
         <v>80</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="I9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="S9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>56</v>
+      <c r="U9" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="V9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AC9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AD9" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>41</v>
@@ -1559,54 +1557,54 @@
         <v>2714100</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="13">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="S10" s="6" t="s">
         <v>45</v>
       </c>
@@ -1614,34 +1612,34 @@
         <v>45</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB10" s="6" t="s">
+      <c r="AC10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AD10" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="AE10" s="6" t="s">
         <v>41</v>
@@ -1658,91 +1656,91 @@
         <v>2714100</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="13">
-        <v>75</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" s="6" t="s">
+      <c r="AB11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB11" s="6" t="s">
+      <c r="AC11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="AD11" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>41</v>
@@ -1756,6 +1754,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="F12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
@@ -1765,7 +1764,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1932,6 +1931,46 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6:B10" r:id="rId1" display="st0000001@student.spbu.ru"/>
